--- a/docs/algo features.xlsx
+++ b/docs/algo features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>2016-Learning a general-purpose confidence measure based on O(1) features--(3DV)</t>
+  </si>
+  <si>
+    <t>matlab</t>
   </si>
 </sst>
 </file>
@@ -606,8 +609,8 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:A39"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,6 +1028,9 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
